--- a/test_cases/LS-S3-PE-44-01.xlsx
+++ b/test_cases/LS-S3-PE-44-01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\UADE\MATERIAS 2° cuatrimestre\01 - TESTING DE APLICACIONES\trabajos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A9F238-1607-4553-BB88-49B9E97B2B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E50F98F-032D-47FA-AD21-7BBA8D3ECA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{07F2466B-E0EF-40F1-8529-7B02356599F9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>User Stories covered</t>
-  </si>
-  <si>
-    <t>US-1</t>
   </si>
   <si>
     <t>Automation Status</t>
@@ -522,29 +519,65 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -565,21 +598,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -589,20 +607,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -613,50 +640,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -978,7 +975,7 @@
   <dimension ref="B2:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,67 +988,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="38" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="30" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="38" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="37" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
@@ -1062,26 +1059,26 @@
       <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
@@ -1089,28 +1086,28 @@
       <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="66"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="3"/>
       <c r="L9" s="5"/>
     </row>
@@ -1118,11 +1115,11 @@
       <c r="B10" s="8">
         <v>2</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="C10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="3"/>
       <c r="L10" s="5"/>
     </row>
@@ -1130,9 +1127,9 @@
       <c r="B11" s="13">
         <v>3</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="3"/>
       <c r="L11" s="5"/>
     </row>
@@ -1198,20 +1195,20 @@
       <c r="L18" s="6"/>
     </row>
     <row r="19" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="58"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
@@ -1219,16 +1216,16 @@
       <c r="P19" s="17"/>
     </row>
     <row r="20" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="61"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="37"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
@@ -1236,24 +1233,24 @@
       <c r="P20" s="17"/>
     </row>
     <row r="21" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="63"/>
+      <c r="F21" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="62" t="s">
+      <c r="G21" s="56"/>
+      <c r="H21" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
@@ -1279,144 +1276,165 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="55"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="59"/>
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="19">
         <v>1</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="52"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="62"/>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="2:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="19">
         <v>2</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="49"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="41"/>
       <c r="P25" s="17"/>
     </row>
     <row r="26" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="19">
         <v>3</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="49"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="41"/>
       <c r="P26" s="17"/>
     </row>
     <row r="27" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="19">
         <v>4</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="49"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="41"/>
       <c r="P27" s="17"/>
     </row>
     <row r="28" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
         <v>5</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="49"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="41"/>
       <c r="P28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D19:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="G27:O27"/>
+    <mergeCell ref="G28:O28"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G25:O25"/>
+    <mergeCell ref="G26:O26"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="G23:O23"/>
+    <mergeCell ref="G24:O24"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
@@ -1427,33 +1445,12 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D19:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="G27:O27"/>
-    <mergeCell ref="G28:O28"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="H4:L4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G25:O25"/>
-    <mergeCell ref="G26:O26"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="G23:O23"/>
-    <mergeCell ref="G24:O24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="B19:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_cases/LS-S3-PE-44-01.xlsx
+++ b/test_cases/LS-S3-PE-44-01.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\UADE\MATERIAS 2° cuatrimestre\01 - TESTING DE APLICACIONES\trabajos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E50F98F-032D-47FA-AD21-7BBA8D3ECA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F668359-2C52-46BE-BB3C-D43AA4087F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{07F2466B-E0EF-40F1-8529-7B02356599F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{07F2466B-E0EF-40F1-8529-7B02356599F9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="CP-01" sheetId="1" r:id="rId1"/>
+    <sheet name="CP-02" sheetId="2" r:id="rId2"/>
+    <sheet name="CP-03" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -138,6 +140,39 @@
   </si>
   <si>
     <t>1.0v</t>
+  </si>
+  <si>
+    <t>El usuario cierra la ventana del carrito de compras</t>
+  </si>
+  <si>
+    <t>El usuario esta en la pagina de productos</t>
+  </si>
+  <si>
+    <t>La pagina muestra los productos con la opcion de agregar carritos</t>
+  </si>
+  <si>
+    <t>El usuario cierra la pagina</t>
+  </si>
+  <si>
+    <t>La pagina pierda todos los productos cuando se cierra</t>
+  </si>
+  <si>
+    <t>El usuario se queda sin conexión a internet</t>
+  </si>
+  <si>
+    <t>El usuario esta navegando en los productos</t>
+  </si>
+  <si>
+    <t>la pagina le muestra los productos para agregar los productos</t>
+  </si>
+  <si>
+    <t>El usuario se queda sin internet por 2 minutos</t>
+  </si>
+  <si>
+    <t>El sistema guarda el carrito en las cookies y regresa a la sub-seccion de productos</t>
+  </si>
+  <si>
+    <t>el usuario regresa a la sub-seccion de productos y agregando productos al carrito</t>
   </si>
 </sst>
 </file>
@@ -464,7 +499,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -513,11 +548,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -654,6 +692,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -974,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF83EEF-8DD5-45ED-A930-0B18B926DBB8}">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,67 +1062,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="42" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="29" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="24" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="44" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
@@ -1059,26 +1133,26 @@
       <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
@@ -1086,28 +1160,28 @@
       <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="3"/>
       <c r="L9" s="5"/>
     </row>
@@ -1115,11 +1189,11 @@
       <c r="B10" s="8">
         <v>2</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="3"/>
       <c r="L10" s="5"/>
     </row>
@@ -1127,9 +1201,9 @@
       <c r="B11" s="13">
         <v>3</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="3"/>
       <c r="L11" s="5"/>
     </row>
@@ -1146,69 +1220,110 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="7"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
       <c r="L14" s="6"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="6"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
       <c r="L16" s="6"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
       <c r="L17" s="6"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="6"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
     </row>
     <row r="19" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="32" t="s">
+      <c r="C19" s="70"/>
+      <c r="D19" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
@@ -1216,16 +1331,16 @@
       <c r="P19" s="17"/>
     </row>
     <row r="20" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="37"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
@@ -1233,24 +1348,24 @@
       <c r="P20" s="17"/>
     </row>
     <row r="21" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="63" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="63"/>
-      <c r="F21" s="55" t="s">
+      <c r="E21" s="77"/>
+      <c r="F21" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="64" t="s">
+      <c r="G21" s="57"/>
+      <c r="H21" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="75"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
@@ -1274,167 +1389,167 @@
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
+    <row r="23" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="57" t="s">
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="60"/>
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="19">
         <v>1</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="60" t="s">
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="63"/>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="2:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="19">
         <v>2</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="39" t="s">
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="42"/>
       <c r="P25" s="17"/>
     </row>
     <row r="26" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="19">
         <v>3</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="39" t="s">
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="42"/>
       <c r="P26" s="17"/>
     </row>
     <row r="27" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="19">
         <v>4</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="39" t="s">
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="42"/>
       <c r="P27" s="17"/>
     </row>
     <row r="28" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="21">
+      <c r="B28" s="20">
         <v>5</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="39" t="s">
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="42"/>
       <c r="P28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="G26:O26"/>
+    <mergeCell ref="G25:O25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G28:O28"/>
+    <mergeCell ref="G27:O27"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="B19:C20"/>
-    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G24:O24"/>
+    <mergeCell ref="G23:O23"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="D19:K20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="G27:O27"/>
-    <mergeCell ref="G28:O28"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G25:O25"/>
-    <mergeCell ref="G26:O26"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="G23:O23"/>
-    <mergeCell ref="G24:O24"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
@@ -1455,4 +1570,834 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C790945C-ED50-4A4F-8B70-547E601BED10}">
+  <dimension ref="B2:P19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="2:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="21">
+        <v>1</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="21">
+        <v>2</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
+        <v>3</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="64"/>
+      <c r="F15" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="57"/>
+      <c r="H15" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="17"/>
+    </row>
+    <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="21">
+        <v>1</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="17"/>
+    </row>
+    <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="21">
+        <v>2</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:O18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:O19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:O17"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:K14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644521CE-92B3-46C1-8F17-569972CB90EB}">
+  <dimension ref="B2:P22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="2:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="21">
+        <v>1</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="21">
+        <v>2</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
+        <v>3</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="64"/>
+      <c r="F15" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="57"/>
+      <c r="H15" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="17"/>
+    </row>
+    <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="21">
+        <v>1</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="17"/>
+    </row>
+    <row r="19" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="21">
+        <v>2</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="17"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="21">
+        <v>3</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="17"/>
+    </row>
+    <row r="21" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="21">
+        <v>4</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="17"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="20">
+        <v>5</v>
+      </c>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:O21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:O22"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:O18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:O19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:O20"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:O17"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:K14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>